--- a/data/trans_orig/P14B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{260ECEAC-1343-4F37-88F9-5F072239378F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{891D0F8D-4A69-45CF-86C8-ADEA2845F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{646400FB-F36C-413A-973F-834BA0BF921A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{732359F4-8422-4F91-A4D7-98A406B5307D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>21,16%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>80,99%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>43,48%</t>
+    <t>44,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>78,84%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>19,01%</t>
   </si>
   <si>
     <t>88,88%</t>
   </si>
   <si>
-    <t>56,52%</t>
+    <t>55,99%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -124,282 +124,282 @@
     <t>28,74%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>44,9%</t>
   </si>
   <si>
-    <t>30,82%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -457,574 +457,580 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>65,59%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>9,67%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>90,33%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83388DDA-E5F9-4299-8E33-B06B28DC9E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89CE0B0-8315-426F-8B5F-040904207035}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2499,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E281665F-FDFC-4C88-B510-32449EEF45A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525170A3-B6FD-4A69-87AF-746E10B1C51A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3109,7 +3115,7 @@
         <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3157,7 +3163,7 @@
         <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>186</v>
@@ -3401,10 +3407,10 @@
         <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -3413,13 +3419,13 @@
         <v>78180</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -3428,13 +3434,13 @@
         <v>152485</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3455,13 @@
         <v>223411</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -3464,13 +3470,13 @@
         <v>218999</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -3479,13 +3485,13 @@
         <v>442410</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9C152-26B5-4DA8-A041-B1A8F92EA635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2A3BC8-3D14-4AD6-9503-38BE83A4E081}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3579,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3686,13 +3692,13 @@
         <v>633</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3701,13 +3707,13 @@
         <v>2360</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3716,13 +3722,13 @@
         <v>2993</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,10 +3743,10 @@
         <v>9488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3752,13 +3758,13 @@
         <v>15030</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3767,13 +3773,13 @@
         <v>24518</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3847,13 @@
         <v>5865</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -3856,13 +3862,13 @@
         <v>9358</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3871,13 +3877,13 @@
         <v>15223</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,28 +3898,28 @@
         <v>51018</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
       </c>
       <c r="I8" s="7">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
@@ -3922,13 +3928,13 @@
         <v>94900</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3961,7 @@
         <v>116</v>
       </c>
       <c r="I9" s="7">
-        <v>53240</v>
+        <v>53239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -3996,13 +4002,13 @@
         <v>10408</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4011,13 +4017,13 @@
         <v>19500</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -4026,13 +4032,13 @@
         <v>29908</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4053,13 @@
         <v>77483</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -4062,13 +4068,13 @@
         <v>64558</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -4077,13 +4083,13 @@
         <v>142042</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4157,13 @@
         <v>11941</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4166,13 +4172,13 @@
         <v>14570</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4181,13 +4187,13 @@
         <v>26511</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,10 +4208,10 @@
         <v>54078</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>288</v>
@@ -4214,7 +4220,7 @@
         <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>36372</v>
+        <v>36373</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>289</v>
@@ -4265,7 +4271,7 @@
         <v>84</v>
       </c>
       <c r="I15" s="7">
-        <v>50942</v>
+        <v>50943</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -4494,10 +4500,10 @@
         <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4518,13 @@
         <v>279540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
@@ -4527,28 +4533,28 @@
         <v>229253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
       </c>
       <c r="N20" s="7">
-        <v>508794</v>
+        <v>508793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,7 +4596,7 @@
         <v>967</v>
       </c>
       <c r="N21" s="7">
-        <v>604681</v>
+        <v>604680</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P14B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891D0F8D-4A69-45CF-86C8-ADEA2845F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4793223-1AD7-4292-BB4F-212FA890541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{732359F4-8422-4F91-A4D7-98A406B5307D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AA47C1D-68AA-4FA5-A8FF-3EC42E8D75AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="333">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,13 +85,13 @@
     <t>21,16%</t>
   </si>
   <si>
-    <t>80,99%</t>
+    <t>80,74%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>44,01%</t>
+    <t>43,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,184 +109,184 @@
     <t>78,84%</t>
   </si>
   <si>
-    <t>19,01%</t>
+    <t>19,26%</t>
   </si>
   <si>
     <t>88,88%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>44,9%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
   <si>
     <t>36,89%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>55,1%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>63,11%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
   </si>
   <si>
     <t>52,53%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>47,47%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
   </si>
   <si>
     <t>49,74%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
   </si>
   <si>
     <t>50,26%</t>
   </si>
   <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -295,421 +295,433 @@
     <t>30,03%</t>
   </si>
   <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya diabetes le limita en 2016 (Tasa respuesta: 8,45%)</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya diabetes le limita en 2015 (Tasa respuesta: 8,45%)</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
@@ -730,9 +742,6 @@
     <t>28,36%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
     <t>4,46%</t>
   </si>
   <si>
@@ -752,9 +761,6 @@
   </si>
   <si>
     <t>93,91%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
   </si>
   <si>
     <t>78,76%</t>
@@ -1442,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89CE0B0-8315-426F-8B5F-040904207035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8F0E8-9189-4928-A3D1-5666AEEA95F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525170A3-B6FD-4A69-87AF-746E10B1C51A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251D8CB-28B6-4484-A857-991162335AAB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3115,7 +3121,7 @@
         <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3124,13 +3130,13 @@
         <v>45750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3151,13 @@
         <v>47796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3160,13 +3166,13 @@
         <v>50245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3175,13 +3181,13 @@
         <v>98041</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3255,13 @@
         <v>15630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3264,13 +3270,13 @@
         <v>17456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3279,13 +3285,13 @@
         <v>33086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3306,13 @@
         <v>57195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -3315,13 +3321,13 @@
         <v>69484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -3330,13 +3336,13 @@
         <v>126679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3410,13 @@
         <v>74305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -3419,13 +3425,13 @@
         <v>78180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -3434,13 +3440,13 @@
         <v>152485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3461,13 @@
         <v>223411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -3470,13 +3476,13 @@
         <v>218999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -3485,13 +3491,13 @@
         <v>442410</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2A3BC8-3D14-4AD6-9503-38BE83A4E081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23171B65-2A6A-4E6C-88A1-7C4B446CF7E1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3692,13 +3698,13 @@
         <v>633</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3707,13 +3713,13 @@
         <v>2360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3722,13 +3728,13 @@
         <v>2993</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,10 +3749,10 @@
         <v>9488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3758,13 +3764,13 @@
         <v>15030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3773,13 +3779,13 @@
         <v>24518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3853,13 @@
         <v>5865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -3862,13 +3868,13 @@
         <v>9358</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3877,13 +3883,13 @@
         <v>15223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3904,13 @@
         <v>51018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -3913,13 +3919,13 @@
         <v>43881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
@@ -3928,13 +3934,13 @@
         <v>94900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4008,13 @@
         <v>10408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4017,13 +4023,13 @@
         <v>19500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -4032,13 +4038,13 @@
         <v>29908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4059,13 @@
         <v>77483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -4068,13 +4074,13 @@
         <v>64558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -4083,13 +4089,13 @@
         <v>142042</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4163,13 @@
         <v>11941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4172,13 +4178,13 @@
         <v>14570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4187,13 +4193,13 @@
         <v>26511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4214,13 @@
         <v>54078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -4223,13 +4229,13 @@
         <v>36373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>125</v>
@@ -4238,13 +4244,13 @@
         <v>90450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4318,13 @@
         <v>7835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4327,13 +4333,13 @@
         <v>13417</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4342,13 +4348,13 @@
         <v>21252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4369,13 @@
         <v>87472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -4378,13 +4384,13 @@
         <v>69411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -4393,13 +4399,13 @@
         <v>156884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4473,13 @@
         <v>36682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -4482,13 +4488,13 @@
         <v>59205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -4497,13 +4503,13 @@
         <v>95887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4524,13 @@
         <v>279540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
@@ -4533,13 +4539,13 @@
         <v>229253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
@@ -4548,13 +4554,13 @@
         <v>508793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
